--- a/cpu_liu_men_report.xlsx
+++ b/cpu_liu_men_report.xlsx
@@ -296,154 +296,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,13 +738,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -753,7 +753,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -780,13 +780,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>880</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -849,7 +849,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -858,7 +858,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -1074,7 +1074,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>511</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1083,13 +1083,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>911</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1107,16 +1107,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>447</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>303</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1137,7 +1137,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1173,13 +1173,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>455</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -1395,13 +1395,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>551</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1410,13 +1410,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>415</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1434,16 +1434,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>447</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>343</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>964</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1464,7 +1464,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1500,13 +1500,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>463</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>495</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -1515,7 +1515,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>40</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -1828,154 +1828,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>96442</c:v>
+                  <c:v>1678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97348</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97868</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98780</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90867</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91541</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92689</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94248</c:v>
+                  <c:v>4343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95115</c:v>
+                  <c:v>3691</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96036</c:v>
+                  <c:v>3615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97243</c:v>
+                  <c:v>2867</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98613</c:v>
+                  <c:v>2216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>99750</c:v>
+                  <c:v>2142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91061</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92218</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97873</c:v>
+                  <c:v>1912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>99740</c:v>
+                  <c:v>1827</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92805</c:v>
+                  <c:v>1752</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>92484</c:v>
+                  <c:v>1677</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93738</c:v>
+                  <c:v>1602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93961</c:v>
+                  <c:v>1528</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>96026</c:v>
+                  <c:v>1445</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98199</c:v>
+                  <c:v>5282</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56585</c:v>
+                  <c:v>4615</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63239</c:v>
+                  <c:v>4541</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59268</c:v>
+                  <c:v>3712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>57766</c:v>
+                  <c:v>3613</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56391</c:v>
+                  <c:v>3537</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63085</c:v>
+                  <c:v>3398</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63805</c:v>
+                  <c:v>3329</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>56262</c:v>
+                  <c:v>3253</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>57434</c:v>
+                  <c:v>2704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58998</c:v>
+                  <c:v>2517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>60757</c:v>
+                  <c:v>2441</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60928</c:v>
+                  <c:v>2367</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61986</c:v>
+                  <c:v>1575</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>63012</c:v>
+                  <c:v>1486</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63534</c:v>
+                  <c:v>1409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64371</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>57361</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>57827</c:v>
+                  <c:v>4938</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58701</c:v>
+                  <c:v>4835</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59590</c:v>
+                  <c:v>4224</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>60418</c:v>
+                  <c:v>2103</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61374</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61858</c:v>
+                  <c:v>1954</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62609</c:v>
+                  <c:v>5289</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>64207</c:v>
+                  <c:v>4607</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65061</c:v>
+                  <c:v>4531</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>57329</c:v>
+                  <c:v>3880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,15 +2065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2100,15 +2100,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2135,14 +2135,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2501,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2509,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2517,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2557,7 +2557,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2613,7 +2613,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2621,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2629,7 +2629,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2669,7 +2669,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2677,7 +2677,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2701,7 +2701,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2709,7 +2709,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2717,7 +2717,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2757,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2765,7 +2765,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2773,7 +2773,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2805,7 +2805,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2829,7 +2829,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2911,13 +2911,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3236,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3429,13 +3429,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3471,13 +3471,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>391</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>96442</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>97348</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>97868</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>98780</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3651,7 +3651,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90867</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>91541</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>92689</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3675,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>94248</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>95115</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>96036</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>97243</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>98613</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3715,7 +3715,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>99750</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>91061</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>92218</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>97873</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3747,7 +3747,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>99740</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3755,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>92805</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3763,7 +3763,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>92484</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3771,7 +3771,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>93738</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3779,7 +3779,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>93961</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>96026</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>98199</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3803,7 +3803,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>56585</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3811,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>63239</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3819,7 +3819,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>59268</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3827,7 +3827,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>57766</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3835,7 +3835,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>56391</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3843,7 +3843,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>63085</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3851,7 +3851,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>63805</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3859,7 +3859,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>56262</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3867,7 +3867,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>57434</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3875,7 +3875,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>58998</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3883,7 +3883,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>60757</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>60928</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>61986</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>63012</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>63534</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>64371</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>57361</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3939,7 +3939,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>57827</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>58701</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3955,7 +3955,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>59590</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3963,7 +3963,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>60418</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>61374</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>61858</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>62609</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3995,7 +3995,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>64207</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4003,7 +4003,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>65061</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>57329</v>
+        <v>3880</v>
       </c>
     </row>
   </sheetData>

--- a/cpu_liu_men_report.xlsx
+++ b/cpu_liu_men_report.xlsx
@@ -132,24 +132,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>cpu!$A$2:$A$2</c:f>
+              <c:f>cpu!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>cpu!$B$2:$B$2</c:f>
+              <c:f>cpu!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,23 +301,47 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>liulang!$A$2:$A$2</c:f>
+              <c:f>liulang!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>liulang!$B$2:$B$2</c:f>
+              <c:f>liulang!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -316,15 +364,43 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>liulang!$A$2:$A$1</c:f>
+              <c:f>liulang!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>liulang!$C$2:$C$1</c:f>
+              <c:f>liulang!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -345,15 +421,43 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>liulang!$A$2:$A$1</c:f>
+              <c:f>liulang!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>liulang!$D$2:$D$1</c:f>
+              <c:f>liulang!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="0"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -480,24 +584,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>men!$A$2:$A$2</c:f>
+              <c:f>men!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>men!$B$2:$B$2</c:f>
+              <c:f>men!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>137792</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>139512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>139776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,6 +1120,38 @@
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1162,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,6 +1193,62 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1279,39 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>137792</v>
+        <v>139512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>139512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>139776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>139776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>139776</v>
       </c>
     </row>
   </sheetData>
